--- a/data/trans_orig/P14C03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C03-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8EA7FD2-182F-4365-92EE-A656D63845B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D6500B4-A26E-47C1-9F69-6125ACB25BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{849AF0FD-7B31-49D6-A0DA-9B6E278876DC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA6A36C9-4443-4C0A-AAFB-98AB5271E0DB}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="250">
   <si>
     <t>Población según el tiempo de diagnóstico de la hipertensión en 2015 (Tasa respuesta: 15,71%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>63,98%</t>
   </si>
   <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
   </si>
   <si>
     <t>81,59%</t>
   </si>
   <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
   </si>
   <si>
     <t>72,81%</t>
   </si>
   <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,688 +104,685 @@
     <t>26,06%</t>
   </si>
   <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
   </si>
   <si>
     <t>15,54%</t>
   </si>
   <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>Ultimos 12 meses</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>Ultimos 12 meses</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>18,36%</t>
   </si>
   <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
+    <t>23,39%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>2,47%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1200,7 +1197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B62571-4281-4705-B96E-A9770234736D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AE6B94-482F-4F39-AAED-CF98993855DB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1647,13 +1644,13 @@
         <v>4443</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -1662,13 +1659,13 @@
         <v>7557</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,7 +1721,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1736,13 +1733,13 @@
         <v>33841</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
@@ -1751,13 +1748,13 @@
         <v>38068</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>71</v>
@@ -1766,13 +1763,13 @@
         <v>71909</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1787,13 +1784,13 @@
         <v>12457</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -1802,13 +1799,13 @@
         <v>11928</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -1817,13 +1814,13 @@
         <v>24386</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1838,13 +1835,13 @@
         <v>795</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1853,13 +1850,13 @@
         <v>902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1868,13 +1865,13 @@
         <v>1697</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,7 +1927,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1942,13 +1939,13 @@
         <v>52379</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -1957,13 +1954,13 @@
         <v>72674</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -1972,13 +1969,13 @@
         <v>125054</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,13 +1990,13 @@
         <v>6565</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2008,13 +2005,13 @@
         <v>4098</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -2023,13 +2020,13 @@
         <v>10663</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,13 +2041,13 @@
         <v>2993</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -2059,13 +2056,13 @@
         <v>969</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -2074,13 +2071,13 @@
         <v>3961</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,7 +2133,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2148,13 +2145,13 @@
         <v>24256</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -2163,13 +2160,13 @@
         <v>38594</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>61</v>
@@ -2178,13 +2175,13 @@
         <v>62850</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,13 +2196,13 @@
         <v>2121</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2214,13 +2211,13 @@
         <v>4113</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -2229,13 +2226,13 @@
         <v>6234</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,10 +2250,10 @@
         <v>35</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2268,10 +2265,10 @@
         <v>35</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2283,7 +2280,7 @@
         <v>35</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>34</v>
@@ -2342,7 +2339,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2354,13 +2351,13 @@
         <v>25117</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -2369,13 +2366,13 @@
         <v>33796</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M24" s="7">
         <v>59</v>
@@ -2384,13 +2381,13 @@
         <v>58913</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2402,13 @@
         <v>8378</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -2420,13 +2417,13 @@
         <v>11374</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2435,13 +2432,13 @@
         <v>19752</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,13 +2453,13 @@
         <v>2723</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2471,13 +2468,13 @@
         <v>2169</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2486,13 +2483,13 @@
         <v>4892</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,7 +2545,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2560,13 +2557,13 @@
         <v>62278</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
@@ -2575,13 +2572,13 @@
         <v>81507</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M28" s="7">
         <v>128</v>
@@ -2590,13 +2587,13 @@
         <v>143785</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,13 +2608,13 @@
         <v>25011</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -2626,13 +2623,13 @@
         <v>9470</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -2641,13 +2638,13 @@
         <v>34480</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,13 +2659,13 @@
         <v>6074</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2677,13 +2674,13 @@
         <v>3093</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -2692,13 +2689,13 @@
         <v>9168</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,7 +2751,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2766,13 +2763,13 @@
         <v>89168</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H32" s="7">
         <v>90</v>
@@ -2781,13 +2778,13 @@
         <v>111454</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M32" s="7">
         <v>179</v>
@@ -2796,13 +2793,13 @@
         <v>200621</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,13 +2814,13 @@
         <v>33543</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H33" s="7">
         <v>29</v>
@@ -2832,13 +2829,13 @@
         <v>33318</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M33" s="7">
         <v>61</v>
@@ -2847,13 +2844,13 @@
         <v>66861</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,13 +2865,13 @@
         <v>5236</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
@@ -2883,10 +2880,10 @@
         <v>11914</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>219</v>
@@ -3095,7 +3092,7 @@
         <v>245</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="M38" s="7">
         <v>45</v>
@@ -3104,13 +3101,13 @@
         <v>48787</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,7 +3163,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C03-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D6500B4-A26E-47C1-9F69-6125ACB25BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{687B9A1F-7266-4DDB-92D3-9D9090CD6EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA6A36C9-4443-4C0A-AAFB-98AB5271E0DB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{394D1CB4-F532-4B72-9C6B-5C87AA2C1982}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="250">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la hipertensión en 2015 (Tasa respuesta: 15,71%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="248">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la hipertensión en 2016 (Tasa respuesta: 15,71%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>63,98%</t>
   </si>
   <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
   </si>
   <si>
     <t>81,59%</t>
   </si>
   <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>72,81%</t>
   </si>
   <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,685 +104,679 @@
     <t>26,06%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
   </si>
   <si>
     <t>15,54%</t>
   </si>
   <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>Ultimos 12 meses</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>Ultimos 12 meses</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
+    <t>5,74%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1197,7 +1191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AE6B94-482F-4F39-AAED-CF98993855DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A515EBC4-FDCD-4AAF-B14D-1721A915B526}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1644,13 +1638,13 @@
         <v>4443</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -1659,13 +1653,13 @@
         <v>7557</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,7 +1715,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1733,13 +1727,13 @@
         <v>33841</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
@@ -1748,13 +1742,13 @@
         <v>38068</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>71</v>
@@ -1763,13 +1757,13 @@
         <v>71909</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,13 +1778,13 @@
         <v>12457</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -1799,13 +1793,13 @@
         <v>11928</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -1814,13 +1808,13 @@
         <v>24386</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1835,13 +1829,13 @@
         <v>795</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1850,13 +1844,13 @@
         <v>902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1865,13 +1859,13 @@
         <v>1697</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,7 +1921,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1939,13 +1933,13 @@
         <v>52379</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -1954,13 +1948,13 @@
         <v>72674</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -1969,10 +1963,10 @@
         <v>125054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>102</v>
@@ -2626,10 +2620,10 @@
         <v>181</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -2638,13 +2632,13 @@
         <v>34480</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,10 +2653,10 @@
         <v>6074</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>188</v>
@@ -2820,7 +2814,7 @@
         <v>206</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="H33" s="7">
         <v>29</v>
@@ -2829,13 +2823,13 @@
         <v>33318</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M33" s="7">
         <v>61</v>
@@ -2844,13 +2838,13 @@
         <v>66861</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,13 +2859,13 @@
         <v>5236</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
@@ -2880,13 +2874,13 @@
         <v>11914</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -2895,13 +2889,13 @@
         <v>17150</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2963,13 @@
         <v>358409</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H36" s="7">
         <v>415</v>
@@ -2984,13 +2978,13 @@
         <v>487418</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M36" s="7">
         <v>775</v>
@@ -2999,13 +2993,13 @@
         <v>845827</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3014,13 @@
         <v>127036</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H37" s="7">
         <v>93</v>
@@ -3035,13 +3029,13 @@
         <v>105197</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M37" s="7">
         <v>212</v>
@@ -3050,13 +3044,13 @@
         <v>232233</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3065,13 @@
         <v>24320</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H38" s="7">
         <v>21</v>
@@ -3086,13 +3080,13 @@
         <v>24467</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="M38" s="7">
         <v>45</v>
@@ -3101,13 +3095,13 @@
         <v>48787</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,7 +3157,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
